--- a/data/trans_orig/P70D_R_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P70D_R_2023-Edad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>9342</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3682</v>
+        <v>3848</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18659</v>
+        <v>19351</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1018327240648319</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04013343500784083</v>
+        <v>0.04194278021853912</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2033883601368055</v>
+        <v>0.2109244740980574</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -775,19 +775,19 @@
         <v>9342</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3564</v>
+        <v>3914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20497</v>
+        <v>20206</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04752875445977416</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0181337065013202</v>
+        <v>0.0199111152137134</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1042783663319497</v>
+        <v>0.1027975942609955</v>
       </c>
     </row>
     <row r="5">
@@ -817,19 +817,19 @@
         <v>82401</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73084</v>
+        <v>72392</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>88061</v>
+        <v>87895</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8981672759351681</v>
+        <v>0.8981672759351682</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7966116398631949</v>
+        <v>0.7890755259019425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9598665649921592</v>
+        <v>0.9580572197814609</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>97</v>
@@ -838,19 +838,19 @@
         <v>187222</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>176067</v>
+        <v>176358</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>193000</v>
+        <v>192650</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9524712455402258</v>
+        <v>0.9524712455402259</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8957216336680502</v>
+        <v>0.8972024057390046</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9818662934986797</v>
+        <v>0.9800888847862868</v>
       </c>
     </row>
     <row r="6">
@@ -942,19 +942,19 @@
         <v>10653</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4175</v>
+        <v>4674</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22860</v>
+        <v>22995</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.0269948807944749</v>
+        <v>0.02699488079447491</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01058078677824459</v>
+        <v>0.01184528984787851</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05793014907915588</v>
+        <v>0.05827051805431941</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>10</v>
@@ -963,19 +963,19 @@
         <v>11186</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5944</v>
+        <v>5662</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>20030</v>
+        <v>20406</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03504280356958724</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01862016636472773</v>
+        <v>0.01773911595620282</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06274942641286567</v>
+        <v>0.06392830084417668</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>17</v>
@@ -984,19 +984,19 @@
         <v>21838</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13023</v>
+        <v>12891</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>35317</v>
+        <v>35936</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03059373084537096</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01824376439004973</v>
+        <v>0.01805933492755798</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04947585565693631</v>
+        <v>0.05034254611301673</v>
       </c>
     </row>
     <row r="8">
@@ -1013,19 +1013,19 @@
         <v>383964</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>371757</v>
+        <v>371622</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>390442</v>
+        <v>389943</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.973005119205525</v>
+        <v>0.9730051192055251</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9420698509208439</v>
+        <v>0.9417294819456806</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9894192132217554</v>
+        <v>0.9881547101521216</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>290</v>
@@ -1034,19 +1034,19 @@
         <v>308019</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>299175</v>
+        <v>298799</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>313261</v>
+        <v>313543</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9649571964304129</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9372505735871338</v>
+        <v>0.9360716991558238</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9813798336352721</v>
+        <v>0.9822608840437974</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>532</v>
@@ -1055,19 +1055,19 @@
         <v>691984</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>678505</v>
+        <v>677886</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>700799</v>
+        <v>700931</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9694062691546291</v>
+        <v>0.9694062691546289</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.950524144343064</v>
+        <v>0.9496574538869835</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9817562356099503</v>
+        <v>0.9819406650724423</v>
       </c>
     </row>
     <row r="9">
@@ -1159,19 +1159,19 @@
         <v>15083</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8214</v>
+        <v>8743</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25201</v>
+        <v>24901</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02795920762599081</v>
+        <v>0.02795920762599082</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01522636671929779</v>
+        <v>0.01620737769606265</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.046716118184756</v>
+        <v>0.04615862490011492</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -1180,19 +1180,19 @@
         <v>14965</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8927</v>
+        <v>9486</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21680</v>
+        <v>21936</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03763835984603094</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0224526117233665</v>
+        <v>0.02385899634922254</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05452733521611098</v>
+        <v>0.055173327551535</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>34</v>
@@ -1201,19 +1201,19 @@
         <v>30047</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21638</v>
+        <v>21051</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40826</v>
+        <v>42021</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03206608543226597</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.023091154591801</v>
+        <v>0.02246547627359369</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04356834771268055</v>
+        <v>0.04484414108446222</v>
       </c>
     </row>
     <row r="11">
@@ -1230,19 +1230,19 @@
         <v>524375</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>514257</v>
+        <v>514557</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>531244</v>
+        <v>530715</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9720407923740091</v>
+        <v>0.9720407923740093</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.953283881815244</v>
+        <v>0.9538413750998853</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9847736332807023</v>
+        <v>0.9837926223039373</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>527</v>
@@ -1251,19 +1251,19 @@
         <v>382626</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>375911</v>
+        <v>375655</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>388664</v>
+        <v>388105</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9623616401539692</v>
+        <v>0.9623616401539691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.945472664783889</v>
+        <v>0.9448266724484653</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9775473882766336</v>
+        <v>0.9761410036507775</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>987</v>
@@ -1272,19 +1272,19 @@
         <v>907002</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>896223</v>
+        <v>895028</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>915411</v>
+        <v>915998</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9679339145677339</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9564316522873192</v>
+        <v>0.9551558589155377</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.976908845408199</v>
+        <v>0.9775345237264063</v>
       </c>
     </row>
     <row r="12">
@@ -1376,19 +1376,19 @@
         <v>27065</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>17716</v>
+        <v>17873</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>40193</v>
+        <v>40051</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04968339274044398</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03252059111914888</v>
+        <v>0.03280888925317765</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07378213052595559</v>
+        <v>0.07352167967235841</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -1397,19 +1397,19 @@
         <v>28526</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21518</v>
+        <v>21031</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37752</v>
+        <v>37634</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06263377402593713</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04724663563760259</v>
+        <v>0.04617753839759697</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08289072029273085</v>
+        <v>0.08263211063570318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>69</v>
@@ -1418,19 +1418,19 @@
         <v>55591</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>42786</v>
+        <v>44349</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69247</v>
+        <v>70376</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05558036911076727</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04277817395817717</v>
+        <v>0.04434004297993925</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06923367607613501</v>
+        <v>0.07036298917313366</v>
       </c>
     </row>
     <row r="14">
@@ -1447,19 +1447,19 @@
         <v>517688</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>504560</v>
+        <v>504702</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>527037</v>
+        <v>526880</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.950316607259556</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9262178694740444</v>
+        <v>0.9264783203276415</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9674794088808514</v>
+        <v>0.9671911107468223</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>668</v>
@@ -1468,19 +1468,19 @@
         <v>426913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>417687</v>
+        <v>417805</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>433921</v>
+        <v>434408</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9373662259740629</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9171092797072694</v>
+        <v>0.9173678893642975</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9527533643623975</v>
+        <v>0.9538224616024034</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1164</v>
@@ -1489,19 +1489,19 @@
         <v>944601</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>930945</v>
+        <v>929816</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>957406</v>
+        <v>955843</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9444196308892326</v>
+        <v>0.9444196308892328</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9307663239238649</v>
+        <v>0.9296370108268665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9572218260418228</v>
+        <v>0.9556599570200607</v>
       </c>
     </row>
     <row r="15">
@@ -1593,19 +1593,19 @@
         <v>28086</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20013</v>
+        <v>19390</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39130</v>
+        <v>39545</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.08565265400707749</v>
+        <v>0.08565265400707746</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06103279438969085</v>
+        <v>0.05913284546964586</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1193338715270104</v>
+        <v>0.1205990462092985</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1614,19 +1614,19 @@
         <v>23062</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>16429</v>
+        <v>16933</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>31095</v>
+        <v>30941</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09954608391904683</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07091777271998878</v>
+        <v>0.07309224233096329</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1342237130166381</v>
+        <v>0.1335574949407344</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -1635,19 +1635,19 @@
         <v>51147</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39829</v>
+        <v>39986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>64835</v>
+        <v>64716</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09140466140303295</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0711785829341423</v>
+        <v>0.07145867799566011</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.115865691552274</v>
+        <v>0.1156527216423062</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>299816</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>288772</v>
+        <v>288357</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>307889</v>
+        <v>308512</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9143473459929226</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8806661284729906</v>
+        <v>0.8794009537907016</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9389672056103092</v>
+        <v>0.940867154530354</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>348</v>
@@ -1685,19 +1685,19 @@
         <v>208605</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>200572</v>
+        <v>200726</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>215238</v>
+        <v>214734</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9004539160809532</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8657762869833617</v>
+        <v>0.8664425050592667</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9290822272800106</v>
+        <v>0.9269077576690371</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>674</v>
@@ -1706,19 +1706,19 @@
         <v>508422</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>494734</v>
+        <v>494853</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>519740</v>
+        <v>519583</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.908595338596967</v>
+        <v>0.9085953385969671</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8841343084477259</v>
+        <v>0.8843472783576942</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9288214170658574</v>
+        <v>0.9285413220043399</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>80886</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>63347</v>
+        <v>64036</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>101948</v>
+        <v>100548</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0423145061577257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03313889191046826</v>
+        <v>0.03349958850515361</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0533326645309885</v>
+        <v>0.05260029591415134</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>117</v>
@@ -1831,19 +1831,19 @@
         <v>87080</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>73009</v>
+        <v>72312</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>104599</v>
+        <v>106089</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.0582225973795733</v>
+        <v>0.05822259737957329</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04881438343421735</v>
+        <v>0.04834811695000268</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06993599030348424</v>
+        <v>0.07093186289841805</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>194</v>
@@ -1852,19 +1852,19 @@
         <v>167967</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>145909</v>
+        <v>146019</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>193702</v>
+        <v>198601</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04929762596082604</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04282369908875472</v>
+        <v>0.04285608396308416</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05685089968864356</v>
+        <v>0.05828883222682463</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>1830665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1809603</v>
+        <v>1811003</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1848204</v>
+        <v>1847515</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9576854938422743</v>
+        <v>0.9576854938422742</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9466673354690114</v>
+        <v>0.9473997040858487</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9668611080895319</v>
+        <v>0.9665004114948467</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1883</v>
@@ -1902,19 +1902,19 @@
         <v>1408565</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1391046</v>
+        <v>1389556</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1422636</v>
+        <v>1423333</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9417774026204268</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9300640096965155</v>
+        <v>0.929068137101582</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9511856165657823</v>
+        <v>0.951651883049997</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3454</v>
@@ -1923,19 +1923,19 @@
         <v>3239229</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3213494</v>
+        <v>3208595</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3261287</v>
+        <v>3261177</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9507023740391739</v>
+        <v>0.9507023740391738</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9431491003113566</v>
+        <v>0.9417111677731753</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9571763009112457</v>
+        <v>0.9571439160369161</v>
       </c>
     </row>
     <row r="21">
